--- a/Tareas.xlsx
+++ b/Tareas.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matic\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matic\Desktop\U\Taller\INFO175-TheRealVerde\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -470,7 +470,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
         <v>23</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -665,7 +665,8 @@
       <c r="F9">
         <v>50</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="2"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -681,8 +682,11 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -758,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G14" s="1"/>
     </row>
